--- a/Functionality/Data/QA/AllTestSuitesDataSet.xlsx
+++ b/Functionality/Data/QA/AllTestSuitesDataSet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFD5A69D-C0A0-43A0-A589-9EE877EDF802}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="850" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="850" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="17" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="UL-482" sheetId="22" r:id="rId10"/>
     <sheet name="UL-322" sheetId="26" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1129,10 +1130,10 @@
     <mergeCell ref="A19:B19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1140,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1203,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1267,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1335,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1448,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1543,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1580,11 +1581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1663,11 +1664,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1695,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1752,7 +1754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
